--- a/data/General Table for Surveillance/Past_HPVnegative_LSIL.xlsx
+++ b/data/General Table for Surveillance/Past_HPVnegative_LSIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/original tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Surveillance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D402FB-57D4-E249-AF4E-EBCA408A6442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC7CE2B-1B0B-E54E-9C43-D9F7A225FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="15620" xr2:uid="{BA597462-D1C7-414E-AC44-FF18848359DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15620" xr2:uid="{BA597462-D1C7-414E-AC44-FF18848359DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="125">
   <si>
     <t>PAST HISTORY (previous 2)</t>
   </si>
@@ -80,27 +80,9 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>CIN3+ Immediate risk (%)</t>
   </si>
   <si>
@@ -188,51 +170,15 @@
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN3+ 1 year risk  (%)</t>
   </si>
   <si>
@@ -263,16 +209,208 @@
     <t>Unweighted Number of CIN2+ Cases</t>
   </si>
   <si>
-    <t>UnweightedNumber of CIN3+ Cases</t>
-  </si>
-  <si>
     <t>UnweightedNumber of Cancer Cases</t>
   </si>
   <si>
-    <t>Unweighted N Informative</t>
-  </si>
-  <si>
     <t>HPV-negative/LSIL</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>SCIN2+ E 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ L95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER SE 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
+  </si>
+  <si>
+    <t>Unweighted %</t>
+  </si>
+  <si>
+    <t>Unweighted Informative N</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of CIN3+ Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Unknown Cases</t>
   </si>
 </sst>
 </file>
@@ -393,7 +531,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,13 +562,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -443,13 +575,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -773,7 +908,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:DF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,18 +917,18 @@
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="21"/>
+    <col min="7" max="7" width="10.83203125" style="19"/>
     <col min="8" max="12" width="10.83203125" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" customWidth="1"/>
     <col min="18" max="20" width="10.83203125" customWidth="1"/>
-    <col min="21" max="24" width="10.83203125" style="15"/>
-    <col min="25" max="40" width="10.83203125" style="15" customWidth="1"/>
-    <col min="41" max="45" width="10.83203125" style="15"/>
-    <col min="46" max="92" width="10.83203125" style="15" customWidth="1"/>
+    <col min="21" max="24" width="10.83203125" style="14"/>
+    <col min="25" max="40" width="10.83203125" style="14" customWidth="1"/>
+    <col min="41" max="45" width="10.83203125" style="14"/>
+    <col min="46" max="92" width="10.83203125" style="14" customWidth="1"/>
     <col min="93" max="93" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="14.6640625" style="15" customWidth="1"/>
+    <col min="94" max="94" width="14.6640625" style="14" customWidth="1"/>
     <col min="96" max="96" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.83203125" style="18"/>
+    <col min="97" max="97" width="10.83203125" style="16"/>
     <col min="98" max="98" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,7 +936,7 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -816,317 +951,317 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>39</v>
+      <c r="H1" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>42</v>
+      <c r="J1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>45</v>
+      <c r="N1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>48</v>
+      <c r="R1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="BZ1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="CQ1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="CR1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="CS1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CU1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="CV1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="CX1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CZ1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="DA1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="DB1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="DC1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="CK1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="CO1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CS1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="CV1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CZ1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="DA1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="DB1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="DD1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="DE1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="DF1" s="14" t="s">
-        <v>48</v>
+      <c r="DD1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="DF1" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.2">
@@ -1135,18 +1270,18 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>1547</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <v>69.97</v>
       </c>
       <c r="H2" s="5">
@@ -1340,8 +1475,8 @@
       <c r="CL2" s="7"/>
       <c r="CM2" s="7"/>
       <c r="CN2" s="7"/>
-      <c r="CO2" s="19" t="s">
-        <v>28</v>
+      <c r="CO2" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="CP2" s="7">
         <v>0.57494999999999996</v>
@@ -1350,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="CR2" s="5"/>
-      <c r="CS2" s="20"/>
+      <c r="CS2" s="18"/>
       <c r="CT2" s="5"/>
       <c r="CU2" s="5"/>
       <c r="CV2" s="5"/>
@@ -1371,7 +1506,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1382,7 +1517,7 @@
       <c r="F3" s="5">
         <v>258</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="23">
         <v>11.67</v>
       </c>
       <c r="H3" s="5">
@@ -1577,7 +1712,7 @@
       <c r="CM3" s="7"/>
       <c r="CN3" s="7"/>
       <c r="CO3" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="CP3" s="7">
         <v>0.99986887999999996</v>
@@ -1586,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="CR3" s="5"/>
-      <c r="CS3" s="20"/>
+      <c r="CS3" s="18"/>
       <c r="CT3" s="5"/>
       <c r="CU3" s="5"/>
       <c r="CV3" s="5"/>
@@ -1607,18 +1742,18 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5">
         <v>133</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>6.01</v>
       </c>
       <c r="H4" s="5">
@@ -1813,7 +1948,7 @@
       <c r="CM4" s="7"/>
       <c r="CN4" s="7"/>
       <c r="CO4" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="CP4" s="7">
         <v>0.95814100000000002</v>
@@ -1822,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="CR4" s="5"/>
-      <c r="CS4" s="20"/>
+      <c r="CS4" s="18"/>
       <c r="CT4" s="5"/>
       <c r="CU4" s="5"/>
       <c r="CV4" s="5"/>
@@ -1842,19 +1977,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>30</v>
+      <c r="E5" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="24">
         <v>0.27</v>
       </c>
       <c r="H5" s="5">
@@ -2041,14 +2176,14 @@
       <c r="CM5" s="7"/>
       <c r="CN5" s="7"/>
       <c r="CO5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP5" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="CP5" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="CQ5" s="4"/>
       <c r="CR5" s="5"/>
-      <c r="CS5" s="17"/>
+      <c r="CS5" s="15"/>
       <c r="CT5" s="5"/>
       <c r="CU5" s="5"/>
       <c r="CV5" s="5"/>
@@ -2068,19 +2203,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>31</v>
+      <c r="E6" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>0.23</v>
       </c>
       <c r="H6" s="5">
@@ -2267,14 +2402,14 @@
       <c r="CM6" s="7"/>
       <c r="CN6" s="7"/>
       <c r="CO6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP6" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="CP6" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="CQ6" s="4"/>
       <c r="CR6" s="5"/>
-      <c r="CS6" s="17"/>
+      <c r="CS6" s="15"/>
       <c r="CT6" s="5"/>
       <c r="CU6" s="5"/>
       <c r="CV6" s="5"/>
@@ -2294,19 +2429,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>33</v>
+      <c r="E7" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>0.18</v>
       </c>
       <c r="H7" s="5">
@@ -2493,14 +2628,14 @@
       <c r="CM7" s="7"/>
       <c r="CN7" s="7"/>
       <c r="CO7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP7" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="CP7" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="CQ7" s="4"/>
       <c r="CR7" s="5"/>
-      <c r="CS7" s="17"/>
+      <c r="CS7" s="15"/>
       <c r="CT7" s="5"/>
       <c r="CU7" s="5"/>
       <c r="CV7" s="5"/>
@@ -2521,13 +2656,13 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5">
         <v>71</v>
@@ -2791,7 +2926,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="CO8" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="CP8" s="7">
         <v>0.97320443725282857</v>
@@ -2801,7 +2936,7 @@
         <v>Y</v>
       </c>
       <c r="CR8" s="5"/>
-      <c r="CS8" s="17"/>
+      <c r="CS8" s="15"/>
       <c r="CT8" s="5"/>
       <c r="CU8" s="5"/>
       <c r="CV8" s="5"/>
@@ -2822,10 +2957,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -3092,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CP9" s="7">
         <v>0.68905260874323493</v>
@@ -3102,7 +3237,7 @@
         <v>N</v>
       </c>
       <c r="CR9" s="5"/>
-      <c r="CS9" s="17"/>
+      <c r="CS9" s="15"/>
       <c r="CT9" s="5"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
@@ -3123,13 +3258,13 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5">
         <v>87</v>
@@ -3393,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="CO10" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CP10" s="7">
         <v>0.87614833962864869</v>
@@ -3403,7 +3538,7 @@
         <v>Y</v>
       </c>
       <c r="CR10" s="5"/>
-      <c r="CS10" s="17"/>
+      <c r="CS10" s="15"/>
       <c r="CT10" s="5"/>
       <c r="CU10" s="5"/>
       <c r="CV10" s="5"/>
@@ -3423,14 +3558,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>30</v>
+      <c r="C11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="5">
         <v>8</v>
@@ -3694,14 +3829,14 @@
         <v>46.487000000000002</v>
       </c>
       <c r="CO11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP11" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="CP11" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="CQ11" s="4"/>
       <c r="CR11" s="5"/>
-      <c r="CS11" s="17"/>
+      <c r="CS11" s="15"/>
       <c r="CT11" s="5"/>
       <c r="CU11" s="5"/>
       <c r="CV11" s="5"/>
@@ -3721,14 +3856,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>31</v>
+      <c r="C12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -3992,14 +4127,14 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="CO12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP12" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="CP12" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="CQ12" s="4"/>
       <c r="CR12" s="5"/>
-      <c r="CS12" s="17"/>
+      <c r="CS12" s="15"/>
       <c r="CT12" s="5"/>
       <c r="CU12" s="5"/>
       <c r="CV12" s="5"/>
@@ -4020,13 +4155,13 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -4290,7 +4425,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="CO13" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="CP13" s="7">
         <v>0.45665458260838498</v>
@@ -4300,7 +4435,7 @@
         <v>N</v>
       </c>
       <c r="CR13" s="5"/>
-      <c r="CS13" s="17"/>
+      <c r="CS13" s="15"/>
       <c r="CT13" s="5"/>
       <c r="CU13" s="5"/>
       <c r="CV13" s="5"/>
@@ -4316,49 +4451,49 @@
       <c r="DF13" s="5"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="F14" s="18"/>
-      <c r="G14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="CO14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="CO14" s="14"/>
       <c r="CP14"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="CB15" s="21"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="CB15" s="19"/>
       <c r="CP15"/>
       <c r="CS15"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="CB16" s="21"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="CB16" s="19"/>
       <c r="CP16"/>
       <c r="CS16"/>
     </row>
